--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2847.866172329657</v>
+        <v>842.563930162537</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4609999656677246</v>
+        <v>0.4600000381469727</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.55105716355239</v>
+        <v>41.99399897576403</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.56736830694244</v>
+        <v>14.79148430448686</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.752483473055586</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2026.029999999999</v>
+        <v>669.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.0999999999925</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.90397522466509</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.7903231246864</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.187002988238973</v>
+        <v>32.94108823397055</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>24.10585884118814</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.128091222209505</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,26 +974,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>189.9879999999994</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>299.34</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>76.33399999999936</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.263</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>140.0699999999979</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1107,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>299.34</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.2629999999999</v>
+        <v>166.2</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>199.34</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -1176,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.262999999999916</v>
+        <v>66.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>24.663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1234,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1245,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>20.667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1256,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
@@ -1267,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.92799999999926</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,23 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
